--- a/ML1_Revision.xlsx
+++ b/ML1_Revision.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgunda976\Desktop\Daily_Tasks\Tensorflow\Revision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgunda976\Desktop\Daily_Tasks\scaler\MLOPS\Git\ML1_Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B82CDF-C6A1-449E-A57D-CF2E15EA1162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BE815-CCC6-42C8-8140-67AAF1CE56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05ECDE1F-3340-4B31-91B7-CF4A62C189E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{05ECDE1F-3340-4B31-91B7-CF4A62C189E4}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t xml:space="preserve">Probability and Statistics - learnt how to understand the data
 </t>
@@ -197,6 +197,27 @@
   </si>
   <si>
     <t>3. Content base similarity</t>
+  </si>
+  <si>
+    <t>A data analysis technique that predicts the value of unknown data by using another related and known data value.</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Loss Function</t>
+  </si>
+  <si>
+    <t>Cost Function</t>
+  </si>
+  <si>
+    <t>Measures the model’s error on a group of objects, whereas the loss function deals with a single data instance.</t>
+  </si>
+  <si>
+    <t>The loss function quantifies how much a model ‘s prediction deviates from the ground truth for one particular object</t>
   </si>
 </sst>
 </file>
@@ -266,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -276,16 +297,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECB8849-F455-4CE2-A504-D69251A581DB}">
   <dimension ref="C2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -645,12 +665,12 @@
       </c>
     </row>
     <row r="9" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -667,7 +687,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -690,7 +710,7 @@
       </c>
     </row>
     <row r="12" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -707,7 +727,7 @@
       </c>
     </row>
     <row r="13" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -721,7 +741,7 @@
       </c>
     </row>
     <row r="14" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -734,22 +754,22 @@
       </c>
     </row>
     <row r="17" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -774,14 +794,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -812,14 +832,14 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
@@ -850,7 +870,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -873,20 +893,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82235BA1-5E32-4D85-B21E-4BDA427DD12B}">
-  <dimension ref="C3"/>
+  <dimension ref="C1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="1" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
